--- a/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="421">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1285,6 +1285,18 @@
   </si>
   <si>
     <t>7/5,26/2023</t>
+  </si>
+  <si>
+    <t>9/7,8/2023</t>
+  </si>
+  <si>
+    <t>8/24,25,29-31/2023</t>
+  </si>
+  <si>
+    <t>9/1,4,5/2023</t>
+  </si>
+  <si>
+    <t>10/4,14/2023</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2162,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2205,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2269,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2329,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2395,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2458,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2556,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2615,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2680,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2723,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2798,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +2984,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3050,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3108,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3174,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3230,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3305,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3348,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3414,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3470,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3568,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3631,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,8 +3697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K631" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K631"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K633" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K633"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4062,12 +4074,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K631"/>
+  <dimension ref="A2:K633"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A566" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="I578" sqref="I578"/>
+      <selection pane="bottomLeft" activeCell="K583" sqref="K583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,7 +4242,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.660999999999767</v>
+        <v>19.160999999999767</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4240,7 +4252,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.75</v>
+        <v>118.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17086,13 +17098,15 @@
         <v>45139</v>
       </c>
       <c r="B579" s="20"/>
-      <c r="C579" s="13"/>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
@@ -17103,25 +17117,33 @@
       <c r="A580" s="40">
         <v>45170</v>
       </c>
-      <c r="B580" s="20"/>
-      <c r="C580" s="13"/>
+      <c r="B580" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H580" s="39"/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H580" s="39">
+        <v>2</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="20" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B581" s="20"/>
+      <c r="A581" s="40"/>
+      <c r="B581" s="20" t="s">
+        <v>322</v>
+      </c>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
@@ -17130,16 +17152,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H581" s="39"/>
+      <c r="H581" s="39">
+        <v>5</v>
+      </c>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="20" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B582" s="20"/>
+      <c r="A582" s="40"/>
+      <c r="B582" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
@@ -17148,16 +17174,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H582" s="39"/>
+      <c r="H582" s="39">
+        <v>3</v>
+      </c>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="20" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B583" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B583" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
@@ -17166,14 +17198,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H583" s="39"/>
+      <c r="H583" s="39">
+        <v>2</v>
+      </c>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20"/>
+      <c r="K583" s="20" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17191,7 +17227,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17209,7 +17245,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17226,7 +17262,9 @@
       <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
+      <c r="A587" s="40">
+        <v>45323</v>
+      </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -17242,7 +17280,9 @@
       <c r="K587" s="20"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40"/>
+      <c r="A588" s="40">
+        <v>45352</v>
+      </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
@@ -17930,20 +17970,52 @@
       <c r="K630" s="20"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="49"/>
-      <c r="B631" s="15"/>
-      <c r="C631" s="41"/>
-      <c r="D631" s="42"/>
+      <c r="A631" s="40"/>
+      <c r="B631" s="20"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="39"/>
       <c r="E631" s="9"/>
-      <c r="F631" s="15"/>
-      <c r="G631" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H631" s="42"/>
+      <c r="F631" s="20"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H631" s="39"/>
       <c r="I631" s="9"/>
-      <c r="J631" s="12"/>
-      <c r="K631" s="15"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="20"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="40"/>
+      <c r="B632" s="20"/>
+      <c r="C632" s="13"/>
+      <c r="D632" s="39"/>
+      <c r="E632" s="9"/>
+      <c r="F632" s="20"/>
+      <c r="G632" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H632" s="39"/>
+      <c r="I632" s="9"/>
+      <c r="J632" s="11"/>
+      <c r="K632" s="20"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" s="49"/>
+      <c r="B633" s="15"/>
+      <c r="C633" s="41"/>
+      <c r="D633" s="42"/>
+      <c r="E633" s="9"/>
+      <c r="F633" s="15"/>
+      <c r="G633" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="42"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="12"/>
+      <c r="K633" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="425">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1300,6 +1300,15 @@
   </si>
   <si>
     <t>9/25,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>UT(0-2-34)</t>
   </si>
 </sst>
 </file>
@@ -3700,8 +3709,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K635"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K638"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4077,12 +4086,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K635"/>
+  <dimension ref="A2:K638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A566" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A572" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K586" sqref="K586"/>
+      <selection pane="bottomLeft" activeCell="F593" sqref="F593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,7 +4254,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.410999999999767</v>
+        <v>20.54999999999972</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4255,7 +4264,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>117.5</v>
+        <v>120</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17235,15 +17244,13 @@
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
-        <v>64</v>
+        <v>424</v>
       </c>
       <c r="C585" s="13"/>
       <c r="D585" s="39">
-        <v>1</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
@@ -17254,39 +17261,43 @@
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="48">
-        <v>45281</v>
-      </c>
+      <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
+      <c r="A586" s="40">
+        <v>45231</v>
+      </c>
       <c r="B586" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C586" s="13"/>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39">
         <v>1</v>
       </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="48">
-        <v>45253</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B587" s="20"/>
+      <c r="A587" s="40"/>
+      <c r="B587" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C587" s="13"/>
-      <c r="D587" s="39"/>
+      <c r="D587" s="39">
+        <v>1</v>
+      </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
       <c r="G587" s="13" t="str">
@@ -17296,15 +17307,19 @@
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
+      <c r="K587" s="48">
+        <v>45253</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B588" s="20"/>
+      <c r="A588" s="40"/>
+      <c r="B588" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="C588" s="13"/>
-      <c r="D588" s="39"/>
+      <c r="D588" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13" t="str">
@@ -17314,20 +17329,22 @@
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="20"/>
+      <c r="K588" s="48"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B589" s="20"/>
-      <c r="C589" s="13"/>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
@@ -17335,8 +17352,8 @@
       <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40">
-        <v>45352</v>
+      <c r="A590" s="47" t="s">
+        <v>422</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17353,7 +17370,9 @@
       <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40"/>
+      <c r="A591" s="40">
+        <v>45292</v>
+      </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -17369,7 +17388,9 @@
       <c r="K591" s="20"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="40"/>
+      <c r="A592" s="40">
+        <v>45323</v>
+      </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -17385,7 +17406,9 @@
       <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="40"/>
+      <c r="A593" s="40">
+        <v>45352</v>
+      </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
@@ -18057,20 +18080,68 @@
       <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="49"/>
-      <c r="B635" s="15"/>
-      <c r="C635" s="41"/>
-      <c r="D635" s="42"/>
+      <c r="A635" s="40"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="39"/>
       <c r="E635" s="9"/>
-      <c r="F635" s="15"/>
-      <c r="G635" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H635" s="42"/>
+      <c r="F635" s="20"/>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H635" s="39"/>
       <c r="I635" s="9"/>
-      <c r="J635" s="12"/>
-      <c r="K635" s="15"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="20"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="40"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="39"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="39"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="40"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="39"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="39"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="49"/>
+      <c r="B638" s="15"/>
+      <c r="C638" s="41"/>
+      <c r="D638" s="42"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="15"/>
+      <c r="G638" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="42"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="12"/>
+      <c r="K638" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18188,14 +18259,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.18500000000000003</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>

--- a/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ACCOUNTING/ENMACINO, LEILA ANGCAYA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="431">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1309,6 +1309,24 @@
   </si>
   <si>
     <t>UT(0-2-34)</t>
+  </si>
+  <si>
+    <t>UT(0-4-14)</t>
+  </si>
+  <si>
+    <t>UT(0-6-54)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-2-41)</t>
   </si>
 </sst>
 </file>
@@ -2174,7 +2192,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2235,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2299,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2359,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2425,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2488,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2586,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2645,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2710,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2753,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2828,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +3014,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3080,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3138,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3204,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3260,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,7 +3335,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3378,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3444,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3500,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3580,7 +3598,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3643,7 +3661,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3709,8 +3727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K638"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K645" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K645"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4086,12 +4104,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K638"/>
+  <dimension ref="A2:K645"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A572" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F593" sqref="F593"/>
+      <selection pane="bottomLeft" activeCell="F598" sqref="F598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,7 +4272,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.54999999999972</v>
+        <v>15.893999999999712</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16920,19 +16938,19 @@
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B571" s="20"/>
-      <c r="C571" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D571" s="39"/>
+      <c r="A571" s="40"/>
+      <c r="B571" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
@@ -16941,11 +16959,9 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B572" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B572" s="20"/>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
@@ -16956,160 +16972,152 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H572" s="39">
-        <v>1</v>
-      </c>
+      <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="48">
-        <v>45016</v>
-      </c>
+      <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>44986</v>
+      </c>
       <c r="B573" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C573" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H573" s="39"/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H573" s="39">
+        <v>1</v>
+      </c>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
       <c r="K573" s="48">
-        <v>45012</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="C574" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D574" s="39">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20" t="s">
-        <v>410</v>
+      <c r="K574" s="48">
+        <v>45012</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>46</v>
+        <v>429</v>
       </c>
       <c r="C575" s="13"/>
-      <c r="D575" s="39"/>
+      <c r="D575" s="39">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H575" s="39">
-        <v>1</v>
-      </c>
+      <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="48">
-        <v>45034</v>
-      </c>
+      <c r="K575" s="48"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B576" s="20" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="C576" s="13">
         <v>1.25</v>
       </c>
-      <c r="D576" s="39"/>
+      <c r="D576" s="39">
+        <v>3</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
       <c r="G576" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H576" s="39">
-        <v>1</v>
-      </c>
+      <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="48">
-        <v>45061</v>
+      <c r="K576" s="20" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B577" s="20"/>
-      <c r="C577" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A577" s="40"/>
+      <c r="B577" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C577" s="13"/>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H577" s="39"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39">
+        <v>1</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="48">
+        <v>45034</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C578" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D578" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H578" s="39">
-        <v>2</v>
-      </c>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="K578" s="48"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B579" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C579" s="13">
         <v>1.25</v>
       </c>
@@ -17120,205 +17128,209 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H579" s="39"/>
+      <c r="H579" s="39">
+        <v>1</v>
+      </c>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="48">
+        <v>45061</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C580" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D580" s="39"/>
+        <v>428</v>
+      </c>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39">
+        <v>0.625</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H580" s="39">
-        <v>2</v>
-      </c>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20" t="s">
-        <v>417</v>
-      </c>
+      <c r="K580" s="48"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <v>45078</v>
+      </c>
       <c r="B581" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C581" s="13"/>
-      <c r="D581" s="39"/>
+        <v>294</v>
+      </c>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D581" s="39">
+        <v>0.10800000000000001</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H581" s="39">
-        <v>5</v>
-      </c>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20" t="s">
-        <v>418</v>
-      </c>
+      <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
+      <c r="A582" s="40">
+        <v>45108</v>
+      </c>
       <c r="B582" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C582" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H582" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C583" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D583" s="39"/>
+        <v>426</v>
+      </c>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39">
+        <v>0.86199999999999999</v>
+      </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H583" s="39">
-        <v>2</v>
-      </c>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20" t="s">
-        <v>420</v>
-      </c>
+      <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <v>45139</v>
+      </c>
       <c r="B584" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C584" s="13"/>
-      <c r="D584" s="39"/>
+        <v>427</v>
+      </c>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D584" s="39">
+        <v>1</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H584" s="39">
-        <v>2</v>
-      </c>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20" t="s">
-        <v>421</v>
+      <c r="K584" s="48">
+        <v>45142</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40"/>
+      <c r="A585" s="40">
+        <v>45170</v>
+      </c>
       <c r="B585" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="C585" s="13"/>
-      <c r="D585" s="39">
-        <v>0.32100000000000001</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H585" s="39"/>
+      <c r="G585" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H585" s="39">
+        <v>2</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="20" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C586" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D586" s="39">
-        <v>1</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H586" s="39"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39">
+        <v>5</v>
+      </c>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="48">
-        <v>45281</v>
+      <c r="K586" s="20" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C587" s="13"/>
-      <c r="D587" s="39">
-        <v>1</v>
-      </c>
+      <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
       <c r="G587" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H587" s="39"/>
+      <c r="H587" s="39">
+        <v>3</v>
+      </c>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="48">
-        <v>45253</v>
+      <c r="K587" s="20" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="39">
-        <v>0.04</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
@@ -17329,13 +17341,15 @@
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="48"/>
+      <c r="K588" s="20"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B589" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B589" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C589" s="13">
         <v>1.25</v>
       </c>
@@ -17346,16 +17360,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H589" s="39"/>
+      <c r="H589" s="39">
+        <v>2</v>
+      </c>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
+      <c r="K589" s="20" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="B590" s="20"/>
+      <c r="A590" s="40"/>
+      <c r="B590" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
@@ -17364,18 +17382,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H590" s="39"/>
+      <c r="H590" s="39">
+        <v>2</v>
+      </c>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
+      <c r="K590" s="20" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B591" s="20"/>
+      <c r="A591" s="40"/>
+      <c r="B591" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="C591" s="13"/>
-      <c r="D591" s="39"/>
+      <c r="D591" s="39">
+        <v>0.32100000000000001</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
       <c r="G591" s="13" t="str">
@@ -17389,29 +17413,39 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B592" s="20"/>
-      <c r="C592" s="13"/>
-      <c r="D592" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B592" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D592" s="39">
+        <v>1</v>
+      </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B593" s="20"/>
+      <c r="A593" s="40"/>
+      <c r="B593" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C593" s="13"/>
-      <c r="D593" s="39"/>
+      <c r="D593" s="39">
+        <v>1</v>
+      </c>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
       <c r="G593" s="13" t="str">
@@ -17421,13 +17455,19 @@
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
+      <c r="K593" s="48">
+        <v>45253</v>
+      </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
-      <c r="B594" s="20"/>
+      <c r="B594" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="C594" s="13"/>
-      <c r="D594" s="39"/>
+      <c r="D594" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
       <c r="G594" s="13" t="str">
@@ -17437,29 +17477,43 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
+      <c r="K594" s="48"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40"/>
-      <c r="B595" s="20"/>
-      <c r="C595" s="13"/>
-      <c r="D595" s="39"/>
+      <c r="A595" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B595" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D595" s="39">
+        <v>1</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="48">
+        <v>45265</v>
+      </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
-      <c r="B596" s="20"/>
+      <c r="B596" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="C596" s="13"/>
-      <c r="D596" s="39"/>
+      <c r="D596" s="39">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13" t="str">
@@ -17469,10 +17523,12 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
+      <c r="K596" s="48"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40"/>
+      <c r="A597" s="47" t="s">
+        <v>422</v>
+      </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
       <c r="D597" s="39"/>
@@ -17488,7 +17544,9 @@
       <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="40"/>
+      <c r="A598" s="40">
+        <v>45292</v>
+      </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
@@ -17504,7 +17562,9 @@
       <c r="K598" s="20"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A599" s="40"/>
+      <c r="A599" s="40">
+        <v>45323</v>
+      </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
@@ -17520,7 +17580,9 @@
       <c r="K599" s="20"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="40"/>
+      <c r="A600" s="40">
+        <v>45352</v>
+      </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
       <c r="D600" s="39"/>
@@ -18128,20 +18190,132 @@
       <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="49"/>
-      <c r="B638" s="15"/>
-      <c r="C638" s="41"/>
-      <c r="D638" s="42"/>
+      <c r="A638" s="40"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="39"/>
       <c r="E638" s="9"/>
-      <c r="F638" s="15"/>
-      <c r="G638" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H638" s="42"/>
+      <c r="F638" s="20"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="39"/>
       <c r="I638" s="9"/>
-      <c r="J638" s="12"/>
-      <c r="K638" s="15"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="40"/>
+      <c r="B639" s="20"/>
+      <c r="C639" s="13"/>
+      <c r="D639" s="39"/>
+      <c r="E639" s="9"/>
+      <c r="F639" s="20"/>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="39"/>
+      <c r="I639" s="9"/>
+      <c r="J639" s="11"/>
+      <c r="K639" s="20"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="40"/>
+      <c r="B640" s="20"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="39"/>
+      <c r="E640" s="9"/>
+      <c r="F640" s="20"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H640" s="39"/>
+      <c r="I640" s="9"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="20"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" s="40"/>
+      <c r="B641" s="20"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="39"/>
+      <c r="E641" s="9"/>
+      <c r="F641" s="20"/>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H641" s="39"/>
+      <c r="I641" s="9"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="20"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="40"/>
+      <c r="B642" s="20"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="39"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="20"/>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="39"/>
+      <c r="I642" s="9"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="20"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" s="40"/>
+      <c r="B643" s="20"/>
+      <c r="C643" s="13"/>
+      <c r="D643" s="39"/>
+      <c r="E643" s="9"/>
+      <c r="F643" s="20"/>
+      <c r="G643" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H643" s="39"/>
+      <c r="I643" s="9"/>
+      <c r="J643" s="11"/>
+      <c r="K643" s="20"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" s="40"/>
+      <c r="B644" s="20"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="39"/>
+      <c r="E644" s="9"/>
+      <c r="F644" s="20"/>
+      <c r="G644" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H644" s="39"/>
+      <c r="I644" s="9"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="20"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" s="49"/>
+      <c r="B645" s="15"/>
+      <c r="C645" s="41"/>
+      <c r="D645" s="42"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="15"/>
+      <c r="G645" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H645" s="42"/>
+      <c r="I645" s="9"/>
+      <c r="J645" s="12"/>
+      <c r="K645" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18262,11 +18436,11 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.32100000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
